--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_후기.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_조선_후기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,14 +1164,1281 @@
           <t>1783 : 정조</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D30" t="n">
+        <v>20221221</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>자휼전칙 반포</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>이승훈 중국에서 세례</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1703 : 숙종</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>노비공감법 실시</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1760 : 영조</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>00시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>수령수세제 실시</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1781 : 정조</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>00시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>기유처분</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1728 : 영조</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>00시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>제언절목 반포</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1861 : 철종</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>00시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>수원유슈부 설치</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1760 : 영조</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1793 : 정조</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>00시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>백두산정계비 건립</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1777 : 정조</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1712 : 숙종</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>00시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>신문고 부활</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1756 : 영조</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1771 : 영조</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>00시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>박지원 과농소초 저술</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1777 : 정조</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1799 : 정조</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>00시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>효명세자 대리청정</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1832 : 순조</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1827 : 순조</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>00시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>수성윤음 반포</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1678 : 숙종</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1751 : 영조</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>00시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>신해허통</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1703 : 숙종</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1851 : 철종</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>00시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>만기요람 편찬</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1707 : 숙종</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1808 : 순조</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>00시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>광주유수부 설치</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>00시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>기해박해</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1716 : 숙종</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1839 : 헌종</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>00시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>대전통편 편찬</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>00시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>무고의 옥</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1689 : 숙종</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1701 : 숙종</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>00시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>정약용 아방강역고 저술</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1793 : 정조</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1811 : 순조</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>00시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>이순신 사당에 호 현충 하사</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1708 : 숙종</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1707 : 숙종</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>00시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>반회 사건</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1796 : 정조</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1787 : 정조</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>00시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>나주 괘서 사건</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>00시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>기사환국</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1678 : 숙종</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1689 : 숙종</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>00시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>황사영 백서 사건</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1811 : 순조</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1801 : 순조</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>00시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>추조 적발 사건</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>00시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>균역법 실시</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1750 : 영조</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>00시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>이조 전랑 통청권 후임 추천권 폐지</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1770 : 영조</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1741 : 영조</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>00시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>자휼전칙 반포</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1762 : 영조</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>00시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>기유처분</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1694 : 숙종</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>00시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>이승훈 중국에서 세례</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1776 : 정조</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>00시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>제언절목 반포</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>00시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>수령수세제 실시</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1770 : 영조</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>00시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>김정호 대동여지도 제작</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1860 : 철종</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1861 : 철종</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>00시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>동문휘고 편찬</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1788 : 정조</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>00시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>속대전 편찬</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1729 : 영조</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1746 : 영조</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>00시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>무고의 옥</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1701 : 숙종</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>00시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>기로과 설치</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1760 : 영조</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1756 : 영조</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>00시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>자휼전칙 반포</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1746 : 영조</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>수령수세제 실시</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1787 : 정조</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>무고의 옥</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1832 : 순조</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1701 : 숙종</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>제언절목 반포</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1755 : 영조</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>07시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>이승훈 중국에서 세례</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1783 : 정조</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>07시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>안정복 동사강목 저술</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1676 : 숙종</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1778 : 정조</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>안정복 천학문답 저술</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1751 : 영조</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1785 : 정조</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>07시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>수령수세제 실시</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1771 : 영조</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1775 : 영조</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>임오화변</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1728 : 영조</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1762 : 영조</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>광주유수부 설치</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1728 : 영조</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>광주유수부 설치</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1762 : 영조</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1795 : 정조</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>무고의 옥</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1676 : 숙종</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1701 : 숙종</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>만기요람 편찬</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1781 : 정조</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1808 : 순조</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>08시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>병신처분</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1704 : 숙종</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1716 : 숙종</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>08시 16분</t>
         </is>
       </c>
     </row>
